--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3B9205-6B83-4D46-9263-AB5BDEFD2B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CAB79F-B30A-4F8C-8D50-7866555E3678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>buscar</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>rbha</t>
+  </si>
+  <si>
+    <t>regulamento brasileiro de aviação civil</t>
+  </si>
+  <si>
+    <t>decisão</t>
+  </si>
+  <si>
+    <t>dec</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -454,6 +463,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CAB79F-B30A-4F8C-8D50-7866555E3678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4EA15-EEB5-4CE5-A828-1B120EBF5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="12290" windowHeight="8980" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
   <sheets>
     <sheet name="buscar_substituir_valores" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>buscar</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>dec</t>
+  </si>
+  <si>
+    <t>alter\w+</t>
+  </si>
+  <si>
+    <t>alteração</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,6 +485,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4EA15-EEB5-4CE5-A828-1B120EBF5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9EAD6-85EB-47D4-853B-7793FBB4EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="12290" windowHeight="8980" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>buscar</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>alteração</t>
+  </si>
+  <si>
+    <t>[0-9]{1,13}\.[0-9]{1,15}</t>
+  </si>
+  <si>
+    <t>portari\w+</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,31 +453,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -479,17 +479,33 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9EAD6-85EB-47D4-853B-7793FBB4EC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0897C5-6E7C-4E23-995C-BCF2CE54CAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="12290" windowHeight="8980" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
   <sheets>
     <sheet name="buscar_substituir_valores" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>buscar</t>
   </si>
@@ -61,15 +61,9 @@
     <t>rbha</t>
   </si>
   <si>
-    <t>regulamento brasileiro de aviação civil</t>
-  </si>
-  <si>
     <t>decisão</t>
   </si>
   <si>
-    <t>dec</t>
-  </si>
-  <si>
     <t>alter\w+</t>
   </si>
   <si>
@@ -80,6 +74,66 @@
   </si>
   <si>
     <t>portari\w+</t>
+  </si>
+  <si>
+    <t>decret\w+</t>
+  </si>
+  <si>
+    <t>decis\w+</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>cnpj</t>
+  </si>
+  <si>
+    <t>cpf</t>
+  </si>
+  <si>
+    <t>isen\w+</t>
+  </si>
+  <si>
+    <t>cumpriment\w+ alternativ\w+</t>
+  </si>
+  <si>
+    <t>condiç\w+ especia\w+</t>
+  </si>
+  <si>
+    <t>diretri\w+ d\w+ aeronavegabilidade</t>
+  </si>
+  <si>
+    <t>embraer</t>
+  </si>
+  <si>
+    <t>modific\w+</t>
+  </si>
+  <si>
+    <t>modificação</t>
+  </si>
+  <si>
+    <t>insenção</t>
+  </si>
+  <si>
+    <t>portaria</t>
+  </si>
+  <si>
+    <t>cumprimento alternativo</t>
+  </si>
+  <si>
+    <t>elos</t>
+  </si>
+  <si>
+    <t>condição especial</t>
+  </si>
+  <si>
+    <t>diretriz de aeronavegabilidade</t>
+  </si>
+  <si>
+    <t>decreto</t>
+  </si>
+  <si>
+    <t>n[i|í]ve\w+ equivalent\w+ d\w+ seguran\w+</t>
   </si>
 </sst>
 </file>
@@ -431,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,60 +507,141 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0897C5-6E7C-4E23-995C-BCF2CE54CAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C557A92-7DB3-4376-9B82-725204D331F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,141 +507,141 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C557A92-7DB3-4376-9B82-725204D331F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F3D10-6EF0-4FD6-8108-B98DF2E89A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>buscar</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>n[i|í]ve\w+ equivalent\w+ d\w+ seguran\w+</t>
+  </si>
+  <si>
+    <t>regulamento brasileiro de aviação civil</t>
+  </si>
+  <si>
+    <t>regulamentos brasileiros de aviação civil</t>
+  </si>
+  <si>
+    <t>regulamentos brasileiros da aviação civil</t>
+  </si>
+  <si>
+    <t>regulamento brasileiro da aviação civil</t>
   </si>
 </sst>
 </file>
@@ -485,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,6 +656,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3F3D10-6EF0-4FD6-8108-B98DF2E89A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D24842-689D-4BFE-AA73-6E281ED6E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>buscar</t>
   </si>
@@ -134,18 +134,6 @@
   </si>
   <si>
     <t>n[i|í]ve\w+ equivalent\w+ d\w+ seguran\w+</t>
-  </si>
-  <si>
-    <t>regulamento brasileiro de aviação civil</t>
-  </si>
-  <si>
-    <t>regulamentos brasileiros de aviação civil</t>
-  </si>
-  <si>
-    <t>regulamentos brasileiros da aviação civil</t>
-  </si>
-  <si>
-    <t>regulamento brasileiro da aviação civil</t>
   </si>
 </sst>
 </file>
@@ -497,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,38 +644,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D24842-689D-4BFE-AA73-6E281ED6E935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A701E-6959-41FF-A7B0-5423DA15DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
   <sheets>
     <sheet name="buscar_substituir_valores" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">buscar_substituir_valores!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,9 +115,6 @@
     <t>modificação</t>
   </si>
   <si>
-    <t>insenção</t>
-  </si>
-  <si>
     <t>portaria</t>
   </si>
   <si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>n[i|í]ve\w+ equivalent\w+ d\w+ seguran\w+</t>
+  </si>
+  <si>
+    <t>isenção</t>
   </si>
 </sst>
 </file>
@@ -487,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -507,144 +510,147 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="B21"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253A701E-6959-41FF-A7B0-5423DA15DBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05C5B4-F090-413F-8330-529A7CA4370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>buscar</t>
   </si>
@@ -133,10 +133,13 @@
     <t>decreto</t>
   </si>
   <si>
-    <t>n[i|í]ve\w+ equivalent\w+ d\w+ seguran\w+</t>
-  </si>
-  <si>
     <t>isenção</t>
+  </si>
+  <si>
+    <t>níve\w+ equivalent\w+ d\w+ seguran\w+</t>
+  </si>
+  <si>
+    <t>nive\w+ equivalent\w+ d\w+ seguran\w+</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,102 +557,115 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="B23"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C05C5B4-F090-413F-8330-529A7CA4370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A86F6-AF1E-4F96-97C9-8DE10EE678E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -136,10 +136,10 @@
     <t>isenção</t>
   </si>
   <si>
-    <t>níve\w+ equivalent\w+ d\w+ seguran\w+</t>
-  </si>
-  <si>
     <t>nive\w+ equivalent\w+ d\w+ seguran\w+</t>
+  </si>
+  <si>
+    <t>nível equivalente de segurança</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A86F6-AF1E-4F96-97C9-8DE10EE678E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972B86C-FC46-4B58-9D68-5EC834EA8FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -136,10 +136,10 @@
     <t>isenção</t>
   </si>
   <si>
-    <t>nive\w+ equivalent\w+ d\w+ seguran\w+</t>
-  </si>
-  <si>
-    <t>nível equivalente de segurança</t>
+    <t>n[i|í]vel de segurança equivalente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n[i|í]vel equivalente de segurança </t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,57 +615,57 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-    <sortCondition ref="B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="B21"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8972B86C-FC46-4B58-9D68-5EC834EA8FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF7126-1245-46FD-8E75-9F6F6C7EBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -136,10 +136,10 @@
     <t>isenção</t>
   </si>
   <si>
-    <t>n[i|í]vel de segurança equivalente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n[i|í]vel equivalente de segurança </t>
+    <t>nível de segurança equivalente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nível equivalente de segurança </t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,159 +513,159 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B23">
+    <sortCondition ref="B23"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF7126-1245-46FD-8E75-9F6F6C7EBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52BF84-9C87-44DE-AD4B-9A257C47F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>buscar</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">nível equivalente de segurança </t>
+  </si>
+  <si>
+    <t>aprov\w+</t>
+  </si>
+  <si>
+    <t>aprovação</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,6 +669,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B23">
     <sortCondition ref="B23"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F52BF84-9C87-44DE-AD4B-9A257C47F0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB95C0A-E56F-41A0-B559-968586604BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -136,16 +136,16 @@
     <t>isenção</t>
   </si>
   <si>
-    <t>nível de segurança equivalente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nível equivalente de segurança </t>
-  </si>
-  <si>
     <t>aprov\w+</t>
   </si>
   <si>
     <t>aprovação</t>
+  </si>
+  <si>
+    <t>d\w+ segurança equivalente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equivalente d\w+ segurança </t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,167 +519,167 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B23">
-    <sortCondition ref="B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="B21"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB95C0A-E56F-41A0-B559-968586604BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E57A3-2BCF-42BB-BB8C-70E85937C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>buscar</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">equivalente d\w+ segurança </t>
+  </si>
+  <si>
+    <t>Nível Equivalente de Segurança Operacional</t>
   </si>
 </sst>
 </file>
@@ -497,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,6 +680,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
     <sortCondition ref="B21"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68E57A3-2BCF-42BB-BB8C-70E85937C8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E9BA4-D33D-4B82-9558-F4670B81E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>buscar</t>
   </si>
@@ -67,9 +67,6 @@
     <t>decisão</t>
   </si>
   <si>
-    <t>alter\w+</t>
-  </si>
-  <si>
     <t>alteração</t>
   </si>
   <si>
@@ -142,13 +139,25 @@
     <t>aprovação</t>
   </si>
   <si>
-    <t>d\w+ segurança equivalente</t>
-  </si>
-  <si>
     <t xml:space="preserve">equivalente d\w+ segurança </t>
   </si>
   <si>
     <t>Nível Equivalente de Segurança Operacional</t>
+  </si>
+  <si>
+    <t>paratocantins</t>
+  </si>
+  <si>
+    <t>altera\w+</t>
+  </si>
+  <si>
+    <t>altero\w+</t>
+  </si>
+  <si>
+    <t>alternativo de cumprimento</t>
+  </si>
+  <si>
+    <t>paraíso do tocantins</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,67 +531,64 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -590,12 +596,12 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -603,94 +609,110 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="B22"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E9BA4-D33D-4B82-9558-F4670B81E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055419E-9C36-42D6-8047-A34293A0E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>cumpriment\w+ alternativ\w+</t>
   </si>
   <si>
-    <t>condiç\w+ especia\w+</t>
-  </si>
-  <si>
     <t>diretri\w+ d\w+ aeronavegabilidade</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t xml:space="preserve">equivalente d\w+ segurança </t>
   </si>
   <si>
-    <t>Nível Equivalente de Segurança Operacional</t>
-  </si>
-  <si>
     <t>paratocantins</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>paraíso do tocantins</t>
+  </si>
+  <si>
+    <t>nível equivalente de segurança operacional</t>
+  </si>
+  <si>
+    <t>condi\w+ especia\w+</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -562,10 +562,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -588,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -604,20 +604,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -625,15 +625,15 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -641,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -672,42 +672,42 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9055419E-9C36-42D6-8047-A34293A0E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1CA7D-740A-44CD-88F2-EE99573E6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>aprovação</t>
   </si>
   <si>
-    <t xml:space="preserve">equivalente d\w+ segurança </t>
-  </si>
-  <si>
     <t>paratocantins</t>
   </si>
   <si>
@@ -151,13 +148,16 @@
     <t>alternativo de cumprimento</t>
   </si>
   <si>
-    <t>paraíso do tocantins</t>
-  </si>
-  <si>
     <t>nível equivalente de segurança operacional</t>
   </si>
   <si>
     <t>condi\w+ especia\w+</t>
+  </si>
+  <si>
+    <t>paraíso do tocantins,</t>
+  </si>
+  <si>
+    <t>equivalente d\w+ segurança,</t>
   </si>
 </sst>
 </file>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -562,7 +562,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -696,15 +696,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1CA7D-740A-44CD-88F2-EE99573E6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A7471F-9EF8-42C1-AE44-DFBFF2D1E260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>buscar</t>
   </si>
@@ -154,10 +154,16 @@
     <t>condi\w+ especia\w+</t>
   </si>
   <si>
-    <t>paraíso do tocantins,</t>
-  </si>
-  <si>
-    <t>equivalente d\w+ segurança,</t>
+    <t>neso</t>
+  </si>
+  <si>
+    <t>paraíso do tocantins</t>
+  </si>
+  <si>
+    <t>equivalente d\w+ segurança</t>
+  </si>
+  <si>
+    <t>\baltera\b</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,7 +542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -544,151 +550,151 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -696,23 +702,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
-    <sortCondition ref="B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="B23"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A7471F-9EF8-42C1-AE44-DFBFF2D1E260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472BF5B-FC21-4724-8FDA-BAD0005E48BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>buscar</t>
   </si>
@@ -94,9 +94,6 @@
     <t>isen\w+</t>
   </si>
   <si>
-    <t>cumpriment\w+ alternativ\w+</t>
-  </si>
-  <si>
     <t>diretri\w+ d\w+ aeronavegabilidade</t>
   </si>
   <si>
@@ -136,34 +133,22 @@
     <t>aprovação</t>
   </si>
   <si>
-    <t>paratocantins</t>
-  </si>
-  <si>
     <t>altera\w+</t>
   </si>
   <si>
     <t>altero\w+</t>
   </si>
   <si>
-    <t>alternativo de cumprimento</t>
-  </si>
-  <si>
-    <t>nível equivalente de segurança operacional</t>
-  </si>
-  <si>
     <t>condi\w+ especia\w+</t>
   </si>
   <si>
-    <t>neso</t>
-  </si>
-  <si>
-    <t>paraíso do tocantins</t>
-  </si>
-  <si>
-    <t>equivalente d\w+ segurança</t>
-  </si>
-  <si>
     <t>\baltera\b</t>
+  </si>
+  <si>
+    <t>Nível Equivalente de Segurança Operacional</t>
+  </si>
+  <si>
+    <t>métod\w+ alternativ\w+ d\w+ cumpriment\w+</t>
   </si>
 </sst>
 </file>
@@ -515,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,7 +527,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -550,7 +535,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -558,7 +543,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -576,10 +561,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -599,52 +584,52 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -652,89 +637,57 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-    <sortCondition ref="B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="B22"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C472BF5B-FC21-4724-8FDA-BAD0005E48BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB444F5-2A47-4FBE-BFA4-2E94D94BEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>buscar</t>
   </si>
@@ -145,10 +145,10 @@
     <t>\baltera\b</t>
   </si>
   <si>
-    <t>Nível Equivalente de Segurança Operacional</t>
-  </si>
-  <si>
-    <t>métod\w+ alternativ\w+ d\w+ cumpriment\w+</t>
+    <t>alternativ\w+ d\w+ cumpriment\w+</t>
+  </si>
+  <si>
+    <t>n[i|í]vel equivalente de segurança operacional</t>
   </si>
 </sst>
 </file>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +545,9 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -671,7 +674,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -679,7 +682,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB444F5-2A47-4FBE-BFA4-2E94D94BEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95FC13-4C5B-4E17-9CC3-F4759CB97478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>buscar</t>
   </si>
@@ -148,7 +148,13 @@
     <t>alternativ\w+ d\w+ cumpriment\w+</t>
   </si>
   <si>
-    <t>n[i|í]vel equivalente de segurança operacional</t>
+    <t>Nível Equivalente de Segurança</t>
+  </si>
+  <si>
+    <t>Regimento Interno</t>
+  </si>
+  <si>
+    <t>regimento interno</t>
   </si>
 </sst>
 </file>
@@ -500,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,18 +680,26 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/buscar_substituir_valores.xlsx
+++ b/buscar_substituir_valores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.macedo\Documents\GitHub\flat-data-anac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD95FC13-4C5B-4E17-9CC3-F4759CB97478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F957D36-303F-4506-A41B-7BCA1AE618A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
+    <workbookView xWindow="1480" yWindow="1220" windowWidth="12290" windowHeight="8980" xr2:uid="{9E2BC8C3-E809-4BE4-B0D8-1500AEE393AC}"/>
   </bookViews>
   <sheets>
     <sheet name="buscar_substituir_valores" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>buscar</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>regimento interno</t>
+  </si>
+  <si>
+    <t>CRM</t>
   </si>
 </sst>
 </file>
@@ -508,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A9DD33-895E-4A83-8098-3CC29069F052}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,6 +588,9 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
